--- a/IFJ_Tables.xlsx
+++ b/IFJ_Tables.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milan\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECTS\VUT\3sem-git\ifj-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE17C67-E5AF-4AA8-ACD0-278753737D5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A61BA7E8-BC8E-4A96-9CE5-64140B8929E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23775" yWindow="4410" windowWidth="21825" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Precedenčná" sheetId="1" r:id="rId1"/>
@@ -34,133 +34,133 @@
     <t>i</t>
   </si>
   <si>
+    <t>* ; / ; //</t>
+  </si>
+  <si>
+    <t>+ ; -</t>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
+  <si>
+    <t>(</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>..</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>FUNCTION</t>
+  </si>
+  <si>
+    <t>GLOBAL</t>
+  </si>
+  <si>
+    <t>IF</t>
+  </si>
+  <si>
+    <t>INTEGER</t>
+  </si>
+  <si>
+    <t>LOCAL</t>
+  </si>
+  <si>
+    <t>NUMBER</t>
+  </si>
+  <si>
+    <t>REQUIRE</t>
+  </si>
+  <si>
+    <t>RETURN</t>
+  </si>
+  <si>
+    <t>STRING</t>
+  </si>
+  <si>
+    <t>WHILE</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>[ID]</t>
+  </si>
+  <si>
+    <t>&lt;program&gt;</t>
+  </si>
+  <si>
+    <t>&lt;body&gt;</t>
+  </si>
+  <si>
+    <t>&lt;params&gt;</t>
+  </si>
+  <si>
+    <t>&lt;param&gt;</t>
+  </si>
+  <si>
+    <t>&lt;returns&gt;</t>
+  </si>
+  <si>
+    <t>&lt;args&gt;</t>
+  </si>
+  <si>
+    <t>&lt;arg&gt;</t>
+  </si>
+  <si>
+    <t>&lt;call&gt;</t>
+  </si>
+  <si>
+    <t>&lt;statement&gt;</t>
+  </si>
+  <si>
+    <t>&lt;id&gt;</t>
+  </si>
+  <si>
+    <t>&lt;type&gt;</t>
+  </si>
+  <si>
+    <t>&lt;value&gt;</t>
+  </si>
+  <si>
+    <t>&lt;init&gt;</t>
+  </si>
+  <si>
+    <t>&lt;after_id&gt;</t>
+  </si>
+  <si>
+    <t>&lt;after_eq&gt;</t>
+  </si>
+  <si>
+    <t>VALUE_INT</t>
+  </si>
+  <si>
+    <t>VALUE_STR</t>
+  </si>
+  <si>
+    <t>VALUE_NUM</t>
+  </si>
+  <si>
+    <t>r - relačné</t>
+  </si>
+  <si>
     <t>&gt;</t>
   </si>
   <si>
+    <t>lavá asociativia &gt;</t>
+  </si>
+  <si>
     <t>&lt;</t>
-  </si>
-  <si>
-    <t>* ; / ; //</t>
-  </si>
-  <si>
-    <t>+ ; -</t>
-  </si>
-  <si>
-    <t>)</t>
-  </si>
-  <si>
-    <t>(</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>..</t>
-  </si>
-  <si>
-    <t>#</t>
-  </si>
-  <si>
-    <t>=</t>
-  </si>
-  <si>
-    <t>lavá asociativia &gt;</t>
-  </si>
-  <si>
-    <t>FUNCTION</t>
-  </si>
-  <si>
-    <t>GLOBAL</t>
-  </si>
-  <si>
-    <t>IF</t>
-  </si>
-  <si>
-    <t>INTEGER</t>
-  </si>
-  <si>
-    <t>LOCAL</t>
-  </si>
-  <si>
-    <t>NUMBER</t>
-  </si>
-  <si>
-    <t>REQUIRE</t>
-  </si>
-  <si>
-    <t>RETURN</t>
-  </si>
-  <si>
-    <t>STRING</t>
-  </si>
-  <si>
-    <t>WHILE</t>
-  </si>
-  <si>
-    <t>:</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>[ID]</t>
-  </si>
-  <si>
-    <t>&lt;program&gt;</t>
-  </si>
-  <si>
-    <t>&lt;body&gt;</t>
-  </si>
-  <si>
-    <t>&lt;params&gt;</t>
-  </si>
-  <si>
-    <t>&lt;param&gt;</t>
-  </si>
-  <si>
-    <t>&lt;returns&gt;</t>
-  </si>
-  <si>
-    <t>&lt;args&gt;</t>
-  </si>
-  <si>
-    <t>&lt;arg&gt;</t>
-  </si>
-  <si>
-    <t>&lt;call&gt;</t>
-  </si>
-  <si>
-    <t>&lt;statement&gt;</t>
-  </si>
-  <si>
-    <t>&lt;id&gt;</t>
-  </si>
-  <si>
-    <t>&lt;type&gt;</t>
-  </si>
-  <si>
-    <t>&lt;value&gt;</t>
-  </si>
-  <si>
-    <t>&lt;init&gt;</t>
-  </si>
-  <si>
-    <t>&lt;after_id&gt;</t>
-  </si>
-  <si>
-    <t>&lt;after_eq&gt;</t>
-  </si>
-  <si>
-    <t>VALUE_INT</t>
-  </si>
-  <si>
-    <t>VALUE_STR</t>
-  </si>
-  <si>
-    <t>VALUE_NUM</t>
-  </si>
-  <si>
-    <t>r - relačné</t>
   </si>
 </sst>
 </file>
@@ -227,7 +227,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -270,6 +270,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="15">
     <border>
@@ -461,7 +467,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -572,9 +578,15 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normálna" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -854,8 +866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -888,25 +900,25 @@
       <c r="A2" s="6"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>4</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>6</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>1</v>
@@ -917,7 +929,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
       <c r="N2" s="7" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
@@ -927,39 +939,39 @@
     <row r="3" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
       <c r="N3" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="O3" s="7"/>
       <c r="P3" s="7"/>
@@ -969,34 +981,34 @@
     <row r="4" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="9" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
@@ -1009,34 +1021,34 @@
     <row r="5" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
@@ -1049,34 +1061,34 @@
     <row r="6" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>44</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>3</v>
+        <v>44</v>
+      </c>
+      <c r="G6" s="43" t="s">
+        <v>42</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="J6" s="16" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
@@ -1089,32 +1101,32 @@
     <row r="7" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>3</v>
+        <v>44</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>44</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="G7" s="17"/>
       <c r="H7" s="13" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
@@ -1127,31 +1139,31 @@
     <row r="8" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>3</v>
+        <v>44</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>44</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="K8" s="11"/>
       <c r="L8" s="7"/>
@@ -1165,30 +1177,30 @@
     <row r="9" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>42</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="H9" s="17"/>
       <c r="I9" s="13" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="J9" s="17"/>
       <c r="K9" s="13" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
@@ -1203,28 +1215,28 @@
       <c r="B10" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="15" t="s">
-        <v>3</v>
+      <c r="C10" s="42" t="s">
+        <v>42</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>2</v>
+        <v>42</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>42</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="H10" s="17"/>
       <c r="I10" s="13" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="J10" s="17"/>
       <c r="K10" s="13" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
@@ -1240,26 +1252,26 @@
         <v>0</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="I11" s="11"/>
       <c r="J11" s="13" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="K11" s="18"/>
       <c r="L11" s="7"/>
@@ -1695,58 +1707,58 @@
     <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="31"/>
       <c r="B1" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="M1" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="M1" s="37" t="s">
+      <c r="N1" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="37" t="s">
-        <v>20</v>
-      </c>
       <c r="O1" s="37" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P1" s="37" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Q1" s="37" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="R1" s="37" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="S1" s="37" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="T1" s="32" t="s">
         <v>0</v>
@@ -1755,7 +1767,7 @@
     </row>
     <row r="2" spans="1:21" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B2" s="34">
         <v>1</v>
@@ -1782,7 +1794,7 @@
     </row>
     <row r="3" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B3" s="35"/>
       <c r="C3" s="39">
@@ -1815,7 +1827,7 @@
     </row>
     <row r="4" spans="1:21" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B4" s="34"/>
       <c r="C4" s="38"/>
@@ -1848,7 +1860,7 @@
     </row>
     <row r="5" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B5" s="35"/>
       <c r="C5" s="39"/>
@@ -1877,7 +1889,7 @@
     </row>
     <row r="6" spans="1:21" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B6" s="34"/>
       <c r="C6" s="38"/>
@@ -1906,7 +1918,7 @@
     </row>
     <row r="7" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B7" s="35"/>
       <c r="C7" s="39"/>
@@ -1935,7 +1947,7 @@
     </row>
     <row r="8" spans="1:21" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B8" s="34"/>
       <c r="C8" s="38"/>
@@ -1964,7 +1976,7 @@
     </row>
     <row r="9" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B9" s="35"/>
       <c r="C9" s="39"/>
@@ -1991,7 +2003,7 @@
     </row>
     <row r="10" spans="1:21" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B10" s="34"/>
       <c r="C10" s="38"/>
@@ -2028,7 +2040,7 @@
     </row>
     <row r="11" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="27" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B11" s="35"/>
       <c r="C11" s="39"/>
@@ -2057,7 +2069,7 @@
     </row>
     <row r="12" spans="1:21" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B12" s="34"/>
       <c r="C12" s="38"/>
@@ -2086,7 +2098,7 @@
     </row>
     <row r="13" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B13" s="35"/>
       <c r="C13" s="39"/>
@@ -2113,7 +2125,7 @@
     </row>
     <row r="14" spans="1:21" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B14" s="34"/>
       <c r="C14" s="38"/>
@@ -2142,7 +2154,7 @@
     </row>
     <row r="15" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="27" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B15" s="35"/>
       <c r="C15" s="39"/>
@@ -2173,7 +2185,7 @@
     </row>
     <row r="16" spans="1:21" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B16" s="36"/>
       <c r="C16" s="40"/>
